--- a/demo01/ling.xlsx
+++ b/demo01/ling.xlsx
@@ -38,10 +38,10 @@
     <t xml:space="preserve">不懂</t>
   </si>
   <si>
-    <t xml:space="preserve">立牌</t>
+    <t xml:space="preserve">抱枕</t>
   </si>
   <si>
-    <t xml:space="preserve">抱枕</t>
+    <t xml:space="preserve">立牌</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -149,7 +149,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
